--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Tumor Neoantigen Burden</t>
+  </si>
+  <si>
+    <t>rna-hgvs</t>
+  </si>
+  <si>
+    <t>Transcript RNA change (rHGVS)</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +503,18 @@
       </c>
       <c r="D3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onconova-cs-tbd.xlsx
+++ b/CodeSystem-onconova-cs-tbd.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
